--- a/biology/Botanique/Olea_javanica/Olea_javanica.xlsx
+++ b/biology/Botanique/Olea_javanica/Olea_javanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea javanica (Blume) Knobl. est un végétal appartenant au genre Olea. C'est un arbre qui peut atteindre 26 m de hauteur et qui pousse dans les forêts primaires des iles de l'archipel Malais (Insulinde). Il a été reconnu et classé dans le sous-genre Tetrapilus par P.S. Green lors de sa révision du genre Olea (2002) avec ses synonymes et sa description botanique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pachyderma javanicum (Blume) (1826) : Isotype.
 Stereoderma javanicum Blume (1828).
@@ -544,9 +558,11 @@
           <t>Sous-taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos, il y a les sous-taxons suivants[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos, il y a les sous-taxons suivants :
 Olea javanica var. grandiflora Koord. &amp; Valeton op. cit. (1902).
 Olea javanica var. laxiflora Koord. &amp; Valeton loc. cit. (1902).
 Olea javanica var. grandiflora Koord. &amp; Valeton op. cit.:252 (1902).
@@ -580,13 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbre pouvant aller de 4 à 26 m de hauteur, avec des jeunes pousses glabres.  Les feuilles sont plus ou moins coriaces, glabres avec des pétioles de 5 à 20 mm de longueur. Leur limbe est oblong-elliptique, de (5,5-)7 à 15(-19) cm de long et large de (2-)3 à 6(-7) cm, la base est aigüe à obtuse, atténuée sur le pétiole, l'apex est longuement à brièvement acuminé. Les bords sont entiers, il y a de 5 à 6(-7) nervures primaires de part et d'autre de la nervure centrale qui fait saillie en dessous, légèrement enfoncée sur le dessus. La nervuration est de couleur sombre.
-Appareil reproducteur
-Les inflorescences sont des cymes paniculées, andro-dioïques, de (1-)3 à 7 cm de longueur, à fleurs abondantes subombellées, glabres ou finement pubérulentes, avec des pédicelles de 1,5 à 5 mm de long. Le calice forme un tube de 0,25 mm de long, avec des lobes triangulaires de 0,5 mm à 7 cm de long, glabres à finement pubérulent, les bords sont ciliès. La corolle est blanche, subsphérique, en tube de 0,75 à 1 mm de long avec des lobes 1,25 à 1,5 mm de long et larges, fortement cuculliformes. Il y a deux étamines (parfois 3 à 4 voir Lanjouw 61) largement elliptiques avec des anthères de 11 à 1,5 mm de long, le filet mesure 0,2 mm de long ou est subsessile. L'ovaire est avorté dans les fleurs mâles, quelquefois globuleux ou en forme de bouteille dans les fleurs femelles, mesurant 1,2 à 1,5 mm de long portant un style de 0,25 mm de long ou rarement différencié avec un stigmate capité, parfois bilobé de 0,25 mm de long, légèrement bilobé. Le fruit est une drupe oblongue-ovale mesurant 1,5 par 1,5, noir-pourpre.
-Répartition géographique
-Cette espèce vit dans les forêts primaires, dans les régions submontagneuses et dans les forêts mixtes à diptérocarpes (arbres géants), entre 250 et 1,800 m.
-Malaisie, Brunei, Sabah, Indonésie, Sumatra, Java et Philippines.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre pouvant aller de 4 à 26 m de hauteur, avec des jeunes pousses glabres.  Les feuilles sont plus ou moins coriaces, glabres avec des pétioles de 5 à 20 mm de longueur. Leur limbe est oblong-elliptique, de (5,5-)7 à 15(-19) cm de long et large de (2-)3 à 6(-7) cm, la base est aigüe à obtuse, atténuée sur le pétiole, l'apex est longuement à brièvement acuminé. Les bords sont entiers, il y a de 5 à 6(-7) nervures primaires de part et d'autre de la nervure centrale qui fait saillie en dessous, légèrement enfoncée sur le dessus. La nervuration est de couleur sombre.
 </t>
         </is>
       </c>
@@ -612,12 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description botanique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est recherchée pour la confection de bonsaïs ou comme arbre d'ornement de parcs et jardins.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont des cymes paniculées, andro-dioïques, de (1-)3 à 7 cm de longueur, à fleurs abondantes subombellées, glabres ou finement pubérulentes, avec des pédicelles de 1,5 à 5 mm de long. Le calice forme un tube de 0,25 mm de long, avec des lobes triangulaires de 0,5 mm à 7 cm de long, glabres à finement pubérulent, les bords sont ciliès. La corolle est blanche, subsphérique, en tube de 0,75 à 1 mm de long avec des lobes 1,25 à 1,5 mm de long et larges, fortement cuculliformes. Il y a deux étamines (parfois 3 à 4 voir Lanjouw 61) largement elliptiques avec des anthères de 11 à 1,5 mm de long, le filet mesure 0,2 mm de long ou est subsessile. L'ovaire est avorté dans les fleurs mâles, quelquefois globuleux ou en forme de bouteille dans les fleurs femelles, mesurant 1,2 à 1,5 mm de long portant un style de 0,25 mm de long ou rarement différencié avec un stigmate capité, parfois bilobé de 0,25 mm de long, légèrement bilobé. Le fruit est une drupe oblongue-ovale mesurant 1,5 par 1,5, noir-pourpre.
 </t>
         </is>
       </c>
@@ -643,10 +665,83 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans les forêts primaires, dans les régions submontagneuses et dans les forêts mixtes à diptérocarpes (arbres géants), entre 250 et 1,800 m.
+Malaisie, Brunei, Sabah, Indonésie, Sumatra, Java et Philippines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_javanica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_javanica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est recherchée pour la confection de bonsaïs ou comme arbre d'ornement de parcs et jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olea_javanica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_javanica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
